--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_Xemchitietduan(mobile)_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_Xemchitietduan(mobile)_ver1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796E922-152B-4E8D-A8E1-035ED1728664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACD60D-793F-4178-8E7B-37FEE8F3BD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="124">
   <si>
     <t>Author</t>
   </si>
@@ -360,6 +360,80 @@
     <t>TC-BDS-XCTDAM-9</t>
   </si>
   <si>
+    <t>TC-BDS-XCTDAM-10</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-11</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-12</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-13</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-14</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-15</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-16</t>
+  </si>
+  <si>
+    <t>hiển thị hình ảnh thông tin  Đơn vị dự án của dự án 
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
+  </si>
+  <si>
+    <t>hiển thị hình ảnh Prochure của dự án 
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
+  </si>
+  <si>
+    <t>hiển thị hình ảnh CSBH cho khách hàng của dự án 
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị hình ảnh thông tin bảng giá của dự án
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị hình ảnh thông tin  pháp lý của dự án
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng </t>
+  </si>
+  <si>
+    <t>hiển thị hình ảnh tổng quan của dự án 
+'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
+  </si>
+  <si>
+    <t>Hiển thị tên dự án được chọn phía trên các mục thông tin của dự án đó .</t>
+  </si>
+  <si>
+    <t>Hiển thị hình ảnh trong từng mục thông tin của dự án khi người dùng nhấn chọn .</t>
+  </si>
+  <si>
+    <t>Hiển thị  hình ảnh trong từng mục thông tin của dự án khi người dùng nhấn chọn .</t>
+  </si>
+  <si>
+    <t>Hiển thị  các mục thông tin của dự án khi người dùng chọn dự án đó .</t>
+  </si>
+  <si>
+    <t>Test Cases for ''Xem chi tiết dự án BDS   "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị định vị của dự án khi nhấn vào mục thông tin : vị trí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị các mục thông tin :
+- tổng quan 
+- pháp lý 
+- bảng giá 
+- CSBH cho nhân viên 
+- CSBH cho khách hàng 
+- Prochure 
+- Đơn vị dự án 
+- Vị trí </t>
+  </si>
+  <si>
     <t xml:space="preserve">hiễn thị tên dự án phía trên các mục thông tin :
 - tổng quan 
 - pháp lý 
@@ -367,67 +441,29 @@
 - CSBH cho nhân viên 
 - CSBH cho khách hàng 
 - Prochure 
-- Đơn vị dự án </t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-10</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-11</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-12</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-13</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-14</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-15</t>
-  </si>
-  <si>
-    <t>TC-BDS-XCTDAM-16</t>
-  </si>
-  <si>
-    <t>hiển thị hình ảnh thông tin  Đơn vị dự án của dự án 
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t>hiển thị hình ảnh Prochure của dự án 
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t>hiển thị hình ảnh CSBH cho khách hàng của dự án 
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị hình ảnh thông tin bảng giá của dự án
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị hình ảnh thông tin  pháp lý của dự án
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng </t>
-  </si>
-  <si>
-    <t>hiển thị hình ảnh tổng quan của dự án 
-'hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t>Hiển thị tên dự án được chọn phía trên các mục thông tin của dự án đó .</t>
-  </si>
-  <si>
-    <t>Hiển thị hình ảnh trong từng mục thông tin của dự án khi người dùng nhấn chọn .</t>
-  </si>
-  <si>
-    <t>Hiển thị  hình ảnh trong từng mục thông tin của dự án khi người dùng nhấn chọn .</t>
-  </si>
-  <si>
-    <t>Hiển thị  các mục thông tin của dự án khi người dùng chọn dự án đó .</t>
-  </si>
-  <si>
-    <t>Test Cases for ''Xem chi tiết dự án BDS   "</t>
+- Đơn vị dự án 
+- vị trí </t>
+  </si>
+  <si>
+    <t>TR-BDS-XCTDAM-5</t>
+  </si>
+  <si>
+    <t>TC-BDS-XCTDAM-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị 'Hiển thị định vị của dự án khi nhấn vào mục thông tin : vị trí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn chọn mục thông tin " Vị trí  "  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị định vị của dự án tương ứng với địa chỉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1245,6 +1281,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,6 +1434,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,24 +1450,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1737,7 +1776,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1752,31 +1791,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1849,21 +1888,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1872,40 +1911,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1944,10 +1983,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1964,80 +2003,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68">
         <v>43528</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2127,7 +2166,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>4</v>
       </c>
@@ -2148,6 +2187,28 @@
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>4</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2173,19 +2234,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E12</xm:sqref>
+          <xm:sqref>E9:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G12</xm:sqref>
+          <xm:sqref>G9:G13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F12</xm:sqref>
+          <xm:sqref>F9:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2196,11 +2257,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63:J66"/>
+      <pane ySplit="3" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2218,17 +2279,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2267,33 +2328,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="97"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="A5" s="86">
         <v>1</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="91" t="s">
+      <c r="D5" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="45">
@@ -2303,17 +2364,19 @@
         <v>56</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="45">
         <v>2</v>
       </c>
@@ -2324,14 +2387,14 @@
       <c r="I6" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="101"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="93"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="45">
         <v>3</v>
       </c>
@@ -2339,25 +2402,25 @@
         <v>73</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="102"/>
+      <c r="I7" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82">
+      <c r="A8" s="86">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="91" t="s">
+      <c r="D8" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="45">
@@ -2367,17 +2430,19 @@
         <v>56</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="100"/>
+      <c r="J8" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="45">
         <v>2</v>
       </c>
@@ -2388,14 +2453,14 @@
       <c r="I9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="101"/>
+      <c r="J9" s="99"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="92"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="45">
         <v>3</v>
       </c>
@@ -2406,14 +2471,14 @@
       <c r="I10" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="45">
         <v>4</v>
       </c>
@@ -2421,23 +2486,23 @@
         <v>75</v>
       </c>
       <c r="H11" s="32"/>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="102"/>
+      <c r="J11" s="100"/>
     </row>
     <row r="12" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82">
+      <c r="A12" s="86">
         <v>1</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="91" t="s">
+      <c r="D12" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="45">
@@ -2447,17 +2512,19 @@
         <v>56</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="100"/>
+      <c r="J12" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="92"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="45">
         <v>2</v>
       </c>
@@ -2468,14 +2535,14 @@
       <c r="I13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="101"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="92"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="45">
         <v>3</v>
       </c>
@@ -2486,14 +2553,14 @@
       <c r="I14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="101"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="93"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="45">
         <v>4</v>
       </c>
@@ -2501,23 +2568,23 @@
         <v>78</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="102"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82">
+      <c r="A16" s="86">
         <v>1</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="85" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="45">
@@ -2527,17 +2594,19 @@
         <v>56</v>
       </c>
       <c r="H16" s="39"/>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="100"/>
+      <c r="J16" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="92"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="45">
         <v>2</v>
       </c>
@@ -2548,14 +2617,14 @@
       <c r="I17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="101"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="92"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="45">
         <v>3</v>
       </c>
@@ -2566,14 +2635,14 @@
       <c r="I18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="101"/>
+      <c r="J18" s="99"/>
     </row>
     <row r="19" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="45">
         <v>4</v>
       </c>
@@ -2581,23 +2650,23 @@
         <v>80</v>
       </c>
       <c r="H19" s="32"/>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="102"/>
+      <c r="J19" s="100"/>
     </row>
     <row r="20" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82">
+      <c r="A20" s="86">
         <v>1</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="85" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="91" t="s">
+      <c r="D20" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="45">
@@ -2607,17 +2676,19 @@
         <v>56</v>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="92"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="45">
         <v>2</v>
       </c>
@@ -2628,14 +2699,14 @@
       <c r="I21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="101"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="92"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="45">
         <v>3</v>
       </c>
@@ -2646,14 +2717,14 @@
       <c r="I22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="101"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="93"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="45">
         <v>4</v>
       </c>
@@ -2661,23 +2732,23 @@
         <v>82</v>
       </c>
       <c r="H23" s="32"/>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="102"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82">
+      <c r="A24" s="86">
         <v>1</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="85" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="91" t="s">
+      <c r="D24" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="45">
@@ -2687,17 +2758,19 @@
         <v>56</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="98" t="s">
+      <c r="I24" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="100"/>
+      <c r="J24" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="92"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="45">
         <v>2</v>
       </c>
@@ -2708,14 +2781,14 @@
       <c r="I25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="101"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="92"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="45">
         <v>3</v>
       </c>
@@ -2724,16 +2797,16 @@
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="101"/>
+        <v>115</v>
+      </c>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="45">
         <v>4</v>
       </c>
@@ -2741,23 +2814,23 @@
         <v>84</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="99" t="s">
+      <c r="I27" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="102"/>
+      <c r="J27" s="100"/>
     </row>
     <row r="28" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82">
+      <c r="A28" s="86">
         <v>1</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="85" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="91" t="s">
+      <c r="D28" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="45">
@@ -2767,17 +2840,19 @@
         <v>56</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="100"/>
+      <c r="J28" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="92"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="45">
         <v>2</v>
       </c>
@@ -2788,14 +2863,14 @@
       <c r="I29" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="101"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="92"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="45">
         <v>3</v>
       </c>
@@ -2806,14 +2881,14 @@
       <c r="I30" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="101"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="93"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="45">
         <v>4</v>
       </c>
@@ -2821,23 +2896,23 @@
         <v>85</v>
       </c>
       <c r="H31" s="32"/>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="102"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82">
+      <c r="A32" s="86">
         <v>1</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="85" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="91" t="s">
+      <c r="D32" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="45">
@@ -2847,17 +2922,17 @@
         <v>56</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="98" t="s">
+      <c r="I32" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="100"/>
+      <c r="J32" s="98"/>
     </row>
     <row r="33" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="92"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="45">
         <v>2</v>
       </c>
@@ -2868,14 +2943,14 @@
       <c r="I33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="101"/>
+      <c r="J33" s="99"/>
     </row>
     <row r="34" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="45">
         <v>3</v>
       </c>
@@ -2886,14 +2961,14 @@
       <c r="I34" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="101"/>
+      <c r="J34" s="99"/>
     </row>
     <row r="35" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="93"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="45">
         <v>4</v>
       </c>
@@ -2901,25 +2976,25 @@
         <v>87</v>
       </c>
       <c r="H35" s="32"/>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="102"/>
+      <c r="J35" s="100"/>
     </row>
     <row r="36" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82">
+      <c r="A36" s="86">
         <v>1</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="45">
@@ -2929,17 +3004,19 @@
         <v>56</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="98" t="s">
+      <c r="I36" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="100"/>
+      <c r="J36" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="92"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="96"/>
       <c r="F37" s="45">
         <v>2</v>
       </c>
@@ -2950,14 +3027,14 @@
       <c r="I37" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="101"/>
+      <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:10" s="44" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="92"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="45">
         <v>3</v>
       </c>
@@ -2966,24 +3043,24 @@
       </c>
       <c r="H38" s="41"/>
       <c r="I38" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="100"/>
+    </row>
+    <row r="39" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="86">
+        <v>1</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="102"/>
-    </row>
-    <row r="39" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82">
-        <v>1</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F39" s="45">
@@ -2993,17 +3070,19 @@
         <v>56</v>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="98" t="s">
+      <c r="I39" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="100"/>
+      <c r="J39" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="92"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="45">
         <v>2</v>
       </c>
@@ -3014,14 +3093,14 @@
       <c r="I40" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="101"/>
+      <c r="J40" s="99"/>
     </row>
     <row r="41" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="92"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="45">
         <v>3</v>
       </c>
@@ -3032,14 +3111,14 @@
       <c r="I41" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="101"/>
+      <c r="J41" s="99"/>
     </row>
     <row r="42" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="84"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="93"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="45">
         <v>4</v>
       </c>
@@ -3047,23 +3126,23 @@
         <v>75</v>
       </c>
       <c r="H42" s="32"/>
-      <c r="I42" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="102"/>
+      <c r="I42" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="100"/>
     </row>
     <row r="43" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82">
+      <c r="A43" s="86">
         <v>1</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="88" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="45">
@@ -3073,17 +3152,19 @@
         <v>56</v>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="98" t="s">
+      <c r="I43" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="100"/>
+      <c r="J43" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="92"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="45">
         <v>2</v>
       </c>
@@ -3094,14 +3175,14 @@
       <c r="I44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="101"/>
+      <c r="J44" s="99"/>
     </row>
     <row r="45" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="92"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="45">
         <v>3</v>
       </c>
@@ -3112,14 +3193,14 @@
       <c r="I45" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="101"/>
+      <c r="J45" s="99"/>
     </row>
     <row r="46" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="93"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="45">
         <v>4</v>
       </c>
@@ -3127,23 +3208,23 @@
         <v>78</v>
       </c>
       <c r="H46" s="32"/>
-      <c r="I46" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="102"/>
+      <c r="I46" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="82">
+      <c r="A47" s="86">
         <v>1</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="88" t="s">
+      <c r="B47" s="90"/>
+      <c r="C47" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="91" t="s">
+      <c r="E47" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="45">
@@ -3153,17 +3234,19 @@
         <v>56</v>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="98" t="s">
+      <c r="I47" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="100"/>
+      <c r="J47" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="48" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="92"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="96"/>
       <c r="F48" s="45">
         <v>2</v>
       </c>
@@ -3174,14 +3257,14 @@
       <c r="I48" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="101"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="92"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="45">
         <v>3</v>
       </c>
@@ -3192,14 +3275,14 @@
       <c r="I49" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="101"/>
+      <c r="J49" s="99"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="84"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="93"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="97"/>
       <c r="F50" s="45">
         <v>4</v>
       </c>
@@ -3207,23 +3290,23 @@
         <v>80</v>
       </c>
       <c r="H50" s="32"/>
-      <c r="I50" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" s="102"/>
+      <c r="I50" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82">
+      <c r="A51" s="86">
         <v>1</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="88" t="s">
+      <c r="B51" s="90"/>
+      <c r="C51" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="E51" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F51" s="45">
@@ -3233,17 +3316,19 @@
         <v>56</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="98" t="s">
+      <c r="I51" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J51" s="100"/>
+      <c r="J51" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="92"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="96"/>
       <c r="F52" s="45">
         <v>2</v>
       </c>
@@ -3254,14 +3339,14 @@
       <c r="I52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="101"/>
+      <c r="J52" s="99"/>
     </row>
     <row r="53" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="92"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="96"/>
       <c r="F53" s="45">
         <v>3</v>
       </c>
@@ -3272,14 +3357,14 @@
       <c r="I53" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J53" s="101"/>
+      <c r="J53" s="99"/>
     </row>
     <row r="54" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="93"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="45">
         <v>4</v>
       </c>
@@ -3287,23 +3372,23 @@
         <v>82</v>
       </c>
       <c r="H54" s="32"/>
-      <c r="I54" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="102"/>
+      <c r="I54" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" s="100"/>
     </row>
     <row r="55" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="82">
+      <c r="A55" s="86">
         <v>1</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="88" t="s">
+      <c r="B55" s="90"/>
+      <c r="C55" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="45">
@@ -3313,17 +3398,19 @@
         <v>56</v>
       </c>
       <c r="H55" s="39"/>
-      <c r="I55" s="98" t="s">
+      <c r="I55" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J55" s="100"/>
+      <c r="J55" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="92"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="96"/>
       <c r="F56" s="45">
         <v>2</v>
       </c>
@@ -3334,14 +3421,14 @@
       <c r="I56" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J56" s="101"/>
+      <c r="J56" s="99"/>
     </row>
     <row r="57" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="92"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="96"/>
       <c r="F57" s="45">
         <v>3</v>
       </c>
@@ -3352,14 +3439,14 @@
       <c r="I57" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="101"/>
+      <c r="J57" s="99"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="84"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="93"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="97"/>
       <c r="F58" s="45">
         <v>4</v>
       </c>
@@ -3367,23 +3454,23 @@
         <v>84</v>
       </c>
       <c r="H58" s="32"/>
-      <c r="I58" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="102"/>
+      <c r="I58" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="82">
+      <c r="A59" s="86">
         <v>1</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="88" t="s">
+      <c r="B59" s="90"/>
+      <c r="C59" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F59" s="45">
@@ -3393,17 +3480,19 @@
         <v>56</v>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="98" t="s">
+      <c r="I59" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J59" s="100"/>
+      <c r="J59" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="92"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="45">
         <v>2</v>
       </c>
@@ -3414,14 +3503,14 @@
       <c r="I60" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="101"/>
+      <c r="J60" s="99"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="92"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="45">
         <v>3</v>
       </c>
@@ -3432,14 +3521,14 @@
       <c r="I61" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="101"/>
+      <c r="J61" s="99"/>
     </row>
     <row r="62" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="93"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="45">
         <v>4</v>
       </c>
@@ -3447,23 +3536,23 @@
         <v>85</v>
       </c>
       <c r="H62" s="32"/>
-      <c r="I62" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="J62" s="102"/>
+      <c r="I62" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82">
+      <c r="A63" s="86">
         <v>1</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="88" t="s">
+      <c r="B63" s="90"/>
+      <c r="C63" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="91" t="s">
+      <c r="E63" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F63" s="45">
@@ -3473,17 +3562,19 @@
         <v>56</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="98" t="s">
+      <c r="I63" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J63" s="100"/>
+      <c r="J63" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="92"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="45">
         <v>2</v>
       </c>
@@ -3494,14 +3585,14 @@
       <c r="I64" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J64" s="101"/>
+      <c r="J64" s="99"/>
     </row>
     <row r="65" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="92"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="45">
         <v>3</v>
       </c>
@@ -3512,14 +3603,14 @@
       <c r="I65" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J65" s="101"/>
+      <c r="J65" s="99"/>
     </row>
     <row r="66" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="93"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="45">
         <v>4</v>
       </c>
@@ -3527,13 +3618,97 @@
         <v>87</v>
       </c>
       <c r="H66" s="32"/>
-      <c r="I66" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="J66" s="102"/>
+      <c r="I66" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J66" s="100"/>
+    </row>
+    <row r="67" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="86">
+        <v>1</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="45">
+        <v>1</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" s="98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="87"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="45">
+        <v>2</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="99"/>
+    </row>
+    <row r="69" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="87"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="45">
+        <v>3</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="99"/>
+    </row>
+    <row r="70" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="88"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="45">
+        <v>4</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="92">
     <mergeCell ref="J47:J50"/>
     <mergeCell ref="J51:J54"/>
     <mergeCell ref="J55:J58"/>
@@ -3551,6 +3726,14 @@
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="J20:J23"/>
     <mergeCell ref="J24:J27"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A11"/>
@@ -3561,15 +3744,7 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E20:E23"/>
     <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
@@ -3620,6 +3795,12 @@
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="B67:B70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
